--- a/myapp/files/9_MethodComparePercent/Scenario 318.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 318.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5970</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.08440759920876</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.21457489878543</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9396</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.70671587975972</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.21457489878543</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2469</v>
+        <v>10565</v>
       </c>
       <c r="F4" t="n">
-        <v>2.64539493421335</v>
+        <v>1.91905632925303</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.61290322580645</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>5.76923076923077</v>
+        <v>2.83400809716599</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3716</v>
+        <v>19931</v>
       </c>
       <c r="F5" t="n">
-        <v>3.98148544979214</v>
+        <v>3.62032292459462</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.26315789473684</v>
+      </c>
+      <c r="K5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.76923076923077</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
       <c r="L5" t="n">
-        <v>3.2258064516129</v>
+        <v>4.83870967741935</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>9606</v>
+        <v>32930</v>
       </c>
       <c r="F6" t="n">
-        <v>10.2922898898556</v>
+        <v>5.98149786297229</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,16 +745,16 @@
         <v>1.61290322580645</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>9.61538461538461</v>
+        <v>5.26315789473684</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>11.2903225806452</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6405</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.16342222327171</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.21457489878543</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2430</v>
+        <v>18113</v>
       </c>
       <c r="F8" t="n">
-        <v>2.60360862298033</v>
+        <v>3.29009628885567</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.92307692307692</v>
+        <v>2.02429149797571</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>8020</v>
+        <v>24603</v>
       </c>
       <c r="F9" t="n">
-        <v>8.59297989971285</v>
+        <v>4.4689581513121</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.61290322580645</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>7.69230769230769</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>8982</v>
+        <v>43126</v>
       </c>
       <c r="F10" t="n">
-        <v>9.62370891012729</v>
+        <v>7.83352799388227</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>6.45161290322581</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>9.61538461538461</v>
+        <v>8.09716599190283</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>6318</v>
+        <v>36855</v>
       </c>
       <c r="F11" t="n">
-        <v>6.76938241974885</v>
+        <v>6.69444590767822</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -935,10 +935,10 @@
         <v>6.45161290322581</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
-        <v>7.69230769230769</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.191269883076521</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.809716599190283</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1296</v>
+        <v>12333</v>
       </c>
       <c r="F13" t="n">
-        <v>1.38859126558951</v>
+        <v>2.24020082429509</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.92307692307692</v>
+        <v>2.83400809716599</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6744</v>
+        <v>39589</v>
       </c>
       <c r="F14" t="n">
-        <v>7.22581751167874</v>
+        <v>7.19105736098421</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1049,10 +1049,10 @@
         <v>8.06451612903226</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>5.76923076923077</v>
+        <v>6.47773279352227</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>8235</v>
+        <v>56279</v>
       </c>
       <c r="F15" t="n">
-        <v>8.82334033343334</v>
+        <v>10.2226759256064</v>
       </c>
       <c r="G15" t="n">
         <v>16</v>
@@ -1087,10 +1087,10 @@
         <v>25.8064516129032</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>7.69230769230769</v>
+        <v>9.31174089068826</v>
       </c>
       <c r="K15" t="n">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>10198</v>
+        <v>58177</v>
       </c>
       <c r="F16" t="n">
-        <v>10.9265846654952</v>
+        <v>10.5674339864603</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1125,10 +1125,10 @@
         <v>9.67741935483871</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>7.69230769230769</v>
+        <v>8.50202429149797</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4455</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.809218736092972</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.61290322580645</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.404858299595142</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>13286</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.41330642597783</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.61290322580645</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.02429149797571</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>21098</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.83230008846005</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>1.61290322580645</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.04858299595142</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>28156</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.11433506923316</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -1277,10 +1277,10 @@
         <v>24.1935483870968</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>6.47773279352227</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>3988</v>
+        <v>38928</v>
       </c>
       <c r="F21" t="n">
-        <v>4.27291818454549</v>
+        <v>7.07099146097132</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>3.84615384615385</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2212</v>
+        <v>5842</v>
       </c>
       <c r="F22" t="n">
-        <v>2.37003385762654</v>
+        <v>1.06115731902472</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.92307692307692</v>
+        <v>0.809716599190283</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3340</v>
+        <v>12136</v>
       </c>
       <c r="F23" t="n">
-        <v>3.57862255175074</v>
+        <v>2.20441718994934</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.84615384615385</v>
+        <v>2.02429149797571</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2886</v>
+        <v>12762</v>
       </c>
       <c r="F24" t="n">
-        <v>3.0921870312433</v>
+        <v>2.31812559147441</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>5.76923076923077</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6642</v>
+        <v>16448</v>
       </c>
       <c r="F25" t="n">
-        <v>7.11653023614623</v>
+        <v>2.9876610036492</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,10 +1467,10 @@
         <v>6.45161290322581</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.84615384615385</v>
+        <v>2.83400809716599</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>6250</v>
+        <v>22095</v>
       </c>
       <c r="F26" t="n">
-        <v>6.69652423606052</v>
+        <v>4.01339797395605</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>3.2258064516129</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>9.61538461538461</v>
+        <v>4.45344129554656</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
